--- a/medicine/Sexualité et sexologie/Hard_Bounty/Hard_Bounty.xlsx
+++ b/medicine/Sexualité et sexologie/Hard_Bounty/Hard_Bounty.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Hard Bounty est un western érotique américain sorti en 1995, réalisé par Jim Wynorski.
 </t>
@@ -511,7 +523,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Martin Kanning abandonne son activité de chasseur de primes quand il tue à la fois le gars qu'il cherchait et la fille qui l'accompagnait. Il décide d'acheter le saloon où travaille Donnie, la prostituée à laquelle il est attaché. Carver, l'homme de main de Bartell, propriétaire d'une ville entière en pays minier, arrive dans la ville du saloon. Kanning et lui ont été ensemble rangers, mais les méthodes de Carver ont révolté Kanning. Depuis, leurs chemins se sont séparés. Carver, pour provoquer Kanning, tue l'une des prostituées qui travaillent pour ce dernier. Devant le peu de réactions du shérif et de Kanning lui-même, Donnie organise une expédition punitive avec ses compagnes. Le chemin de l'apprentissage des armes va s'avérer difficile. Mais Kanning veille au grain.
 </t>
@@ -542,7 +556,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Titre anglais : Hard Bounty
 Genre : western, érotique
@@ -586,7 +602,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Matt McCoy (en) : Kanning
 Kelly LeBrock : Donnie
